--- a/Data/2017 STOP Summary.xlsx
+++ b/Data/2017 STOP Summary.xlsx
@@ -4630,7 +4630,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K199"/>
+  <dimension ref="A1:J199"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -22808,34 +22808,34 @@
       <c r="CS6" t="n">
         <v>0</v>
       </c>
-      <c r="CT6" t="n">
+      <c r="CU6" t="n">
         <v>0.00410044509042683</v>
       </c>
-      <c r="CU6" t="n">
+      <c r="CV6" t="n">
         <v>2.251956412705174</v>
       </c>
-      <c r="CV6" t="n">
+      <c r="CW6" t="n">
         <v>1.707863617060633</v>
       </c>
-      <c r="CW6" t="n">
+      <c r="CX6" t="n">
         <v>0.5149651049997774</v>
       </c>
-      <c r="CX6" t="n">
+      <c r="CY6" t="n">
         <v>0.4850348950002225</v>
       </c>
-      <c r="CY6" t="n">
+      <c r="CZ6" t="n">
         <v>1.061707333447713</v>
       </c>
-      <c r="CZ6" t="n">
+      <c r="DA6" t="n">
         <v>5</v>
       </c>
-      <c r="DA6" t="n">
+      <c r="DB6" t="n">
         <v>58465</v>
       </c>
-      <c r="DB6" t="n">
+      <c r="DC6" t="n">
         <v>10783</v>
       </c>
-      <c r="DC6" t="n">
+      <c r="DD6" t="n">
         <v>69248</v>
       </c>
     </row>
@@ -23130,34 +23130,34 @@
       <c r="CS7" t="n">
         <v>0</v>
       </c>
-      <c r="CT7" t="n">
+      <c r="CU7" t="n">
         <v>0.01460636109552762</v>
       </c>
-      <c r="CU7" t="n">
+      <c r="CV7" t="n">
         <v>3.576229365552904</v>
       </c>
-      <c r="CV7" t="n">
+      <c r="CW7" t="n">
         <v>2.807176484937187</v>
       </c>
-      <c r="CW7" t="n">
+      <c r="CX7" t="n">
         <v>0.310590551124699</v>
       </c>
-      <c r="CX7" t="n">
+      <c r="CY7" t="n">
         <v>0.6894094488753011</v>
       </c>
-      <c r="CY7" t="n">
+      <c r="CZ7" t="n">
         <v>0.4505168178814415</v>
       </c>
-      <c r="CZ7" t="n">
+      <c r="DA7" t="n">
         <v>5</v>
       </c>
-      <c r="DA7" t="n">
+      <c r="DB7" t="n">
         <v>45965</v>
       </c>
-      <c r="DB7" t="n">
+      <c r="DC7" t="n">
         <v>27173</v>
       </c>
-      <c r="DC7" t="n">
+      <c r="DD7" t="n">
         <v>73138</v>
       </c>
     </row>
@@ -23455,34 +23455,34 @@
       <c r="CS8" t="n">
         <v>0</v>
       </c>
-      <c r="CT8" t="n">
+      <c r="CU8" t="n">
         <v>0.01075509840129372</v>
       </c>
-      <c r="CU8" t="n">
+      <c r="CV8" t="n">
         <v>2.289626563388289</v>
       </c>
-      <c r="CV8" t="n">
+      <c r="CW8" t="n">
         <v>1.242226356170721</v>
       </c>
-      <c r="CW8" t="n">
+      <c r="CX8" t="n">
         <v>0.3246147989927015</v>
       </c>
-      <c r="CX8" t="n">
+      <c r="CY8" t="n">
         <v>0.6753852010072985</v>
       </c>
-      <c r="CY8" t="n">
+      <c r="CZ8" t="n">
         <v>0.4806365293591821</v>
       </c>
-      <c r="CZ8" t="n">
+      <c r="DA8" t="n">
         <v>7</v>
       </c>
-      <c r="DA8" t="n">
+      <c r="DB8" t="n">
         <v>58716</v>
       </c>
-      <c r="DB8" t="n">
+      <c r="DC8" t="n">
         <v>51794</v>
       </c>
-      <c r="DC8" t="n">
+      <c r="DD8" t="n">
         <v>110510</v>
       </c>
     </row>
@@ -23777,34 +23777,34 @@
       <c r="CS9" t="n">
         <v>0</v>
       </c>
-      <c r="CT9" t="n">
+      <c r="CU9" t="n">
         <v>0.05218776396410401</v>
-      </c>
-      <c r="CU9" t="n">
-        <v>72.93004051106264</v>
       </c>
       <c r="CV9" t="n">
         <v>72.93004051106264</v>
       </c>
       <c r="CW9" t="n">
+        <v>72.93004051106264</v>
+      </c>
+      <c r="CX9" t="n">
         <v>0.002275130568318257</v>
       </c>
-      <c r="CX9" t="n">
+      <c r="CY9" t="n">
         <v>0.9977248694316817</v>
       </c>
-      <c r="CY9" t="n">
+      <c r="CZ9" t="n">
         <v>0.002280318590849804</v>
       </c>
-      <c r="CZ9" t="n">
+      <c r="DA9" t="n">
         <v>15</v>
       </c>
-      <c r="DA9" t="n">
+      <c r="DB9" t="n">
         <v>94266</v>
       </c>
-      <c r="DB9" t="n">
+      <c r="DC9" t="n">
         <v>21875</v>
       </c>
-      <c r="DC9" t="n">
+      <c r="DD9" t="n">
         <v>116141</v>
       </c>
     </row>
@@ -29835,45 +29835,42 @@
       <c r="AT6" t="n">
         <v>66109038</v>
       </c>
-      <c r="AU6" t="n">
+      <c r="AV6" t="n">
         <v>6598052</v>
       </c>
-      <c r="AV6" t="n">
-        <v>0</v>
-      </c>
       <c r="AW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX6" t="n">
         <v>3520621</v>
       </c>
-      <c r="AX6" t="n">
+      <c r="AY6" t="n">
         <v>-3077431</v>
       </c>
-      <c r="AY6" t="n">
+      <c r="AZ6" t="n">
         <v>3520621</v>
       </c>
-      <c r="AZ6" t="n">
+      <c r="BA6" t="n">
         <v>-3077431</v>
       </c>
-      <c r="BA6" t="n">
+      <c r="BB6" t="n">
         <v>4239892</v>
       </c>
-      <c r="BB6" t="n">
-        <v>0</v>
-      </c>
       <c r="BC6" t="n">
         <v>0</v>
       </c>
       <c r="BD6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BE6" t="n">
         <v>39410218</v>
       </c>
-      <c r="BE6" t="n">
+      <c r="BF6" t="n">
         <v>43650110</v>
       </c>
-      <c r="BF6" t="n">
+      <c r="BG6" t="n">
         <v>0.06413483130702946</v>
       </c>
-      <c r="BG6" t="n">
-        <v>0</v>
-      </c>
       <c r="BH6" t="n">
         <v>0</v>
       </c>
@@ -29881,141 +29878,144 @@
         <v>0</v>
       </c>
       <c r="BJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BK6" t="n">
         <v>12249930</v>
       </c>
-      <c r="BK6" t="n">
+      <c r="BL6" t="n">
         <v>2293847</v>
       </c>
-      <c r="BL6" t="n">
-        <v>0</v>
-      </c>
       <c r="BM6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BN6" t="n">
         <v>1491692</v>
       </c>
-      <c r="BN6" t="n">
-        <v>0</v>
-      </c>
       <c r="BO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP6" t="n">
         <v>368808</v>
       </c>
-      <c r="BP6" t="n">
+      <c r="BQ6" t="n">
         <v>165834028</v>
       </c>
-      <c r="BQ6" t="n">
+      <c r="BR6" t="n">
         <v>26731911</v>
       </c>
-      <c r="BR6" t="n">
-        <v>0</v>
-      </c>
       <c r="BS6" t="n">
         <v>0</v>
       </c>
       <c r="BT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BU6" t="n">
         <v>-96984001.38</v>
       </c>
-      <c r="BU6" t="n">
+      <c r="BV6" t="n">
         <v>0.38</v>
       </c>
-      <c r="BV6" t="n">
+      <c r="BW6" t="n">
         <v>111986215</v>
       </c>
-      <c r="BW6" t="n">
-        <v>0</v>
-      </c>
       <c r="BX6" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY6" t="n">
         <v>111986215</v>
       </c>
-      <c r="BY6" t="n">
-        <v>0</v>
-      </c>
       <c r="BZ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CA6" t="n">
         <v>3927225</v>
       </c>
-      <c r="CA6" t="n">
+      <c r="CB6" t="n">
         <v>424411</v>
       </c>
-      <c r="CB6" t="n">
+      <c r="CC6" t="n">
         <v>1066060</v>
       </c>
-      <c r="CC6" t="n">
+      <c r="CD6" t="n">
         <v>8070345</v>
       </c>
-      <c r="CD6" t="n">
-        <v>0</v>
-      </c>
       <c r="CE6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CF6" t="n">
         <v>509935</v>
       </c>
-      <c r="CF6" t="n">
+      <c r="CG6" t="n">
         <v>54338128</v>
       </c>
-      <c r="CG6" t="n">
-        <v>0</v>
-      </c>
       <c r="CH6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CI6" t="n">
         <v>68336104</v>
       </c>
-      <c r="CI6" t="n">
-        <v>0</v>
-      </c>
       <c r="CJ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CK6" t="n">
         <v>68336104</v>
       </c>
-      <c r="CK6" t="n">
-        <v>0</v>
-      </c>
       <c r="CL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM6" t="n">
         <v>4239892</v>
       </c>
-      <c r="CM6" t="n">
-        <v>0</v>
-      </c>
       <c r="CN6" t="n">
         <v>0</v>
       </c>
       <c r="CO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP6" t="n">
         <v>39410218</v>
       </c>
-      <c r="CP6" t="n">
+      <c r="CQ6" t="n">
         <v>1</v>
       </c>
-      <c r="CQ6" t="n">
+      <c r="CR6" t="n">
         <v>43650111</v>
       </c>
-      <c r="CR6" t="n">
+      <c r="CS6" t="n">
         <v>111986215</v>
       </c>
-      <c r="CS6" t="n">
-        <v>0</v>
-      </c>
       <c r="CT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU6" t="n">
         <v>0.05056208877886362</v>
       </c>
-      <c r="CU6" t="n">
+      <c r="CV6" t="n">
         <v>1.078272004066417</v>
       </c>
-      <c r="CV6" t="n">
+      <c r="CW6" t="n">
         <v>1.038991422759976</v>
       </c>
-      <c r="CW6" t="n">
+      <c r="CX6" t="n">
         <v>0.6102188916734081</v>
       </c>
-      <c r="CX6" t="n">
+      <c r="CY6" t="n">
         <v>0.3897811083265918</v>
       </c>
-      <c r="CY6" t="n">
+      <c r="CZ6" t="n">
         <v>1.565542502285962</v>
       </c>
-      <c r="CZ6" t="n">
+      <c r="DA6" t="n">
         <v>1235</v>
       </c>
-      <c r="DA6" t="n">
+      <c r="DB6" t="n">
         <v>663211</v>
       </c>
-      <c r="DB6" t="n">
+      <c r="DC6" t="n">
         <v>568032</v>
       </c>
-      <c r="DC6" t="n">
+      <c r="DD6" t="n">
         <v>1231243</v>
       </c>
     </row>
@@ -35925,58 +35925,58 @@
       <c r="CJ2" t="n">
         <v>1502447.35</v>
       </c>
-      <c r="CK2" t="n">
-        <v>0</v>
-      </c>
       <c r="CL2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM2" t="n">
         <v>-814342.9699999989</v>
       </c>
-      <c r="CM2" t="n">
+      <c r="CN2" t="n">
         <v>-275777.34</v>
       </c>
-      <c r="CO2" t="n">
+      <c r="CP2" t="n">
         <v>2354349.139999999</v>
       </c>
-      <c r="CP2" t="n">
-        <v>0</v>
-      </c>
       <c r="CQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR2" t="n">
         <v>1264228.83</v>
       </c>
-      <c r="CR2" t="n">
+      <c r="CS2" t="n">
         <v>2766676.18</v>
       </c>
-      <c r="CS2" t="n">
-        <v>0</v>
-      </c>
       <c r="CT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU2" t="n">
         <v>-0.04641645187966596</v>
       </c>
-      <c r="CU2" t="n">
+      <c r="CV2" t="n">
         <v>0.1669652816686673</v>
       </c>
-      <c r="CV2" t="n">
+      <c r="CW2" t="n">
         <v>0.1567265225417037</v>
       </c>
-      <c r="CW2" t="n">
+      <c r="CX2" t="n">
         <v>0.5430513917244916</v>
       </c>
-      <c r="CX2" t="n">
+      <c r="CY2" t="n">
         <v>0.4569486082755084</v>
       </c>
-      <c r="CY2" t="n">
+      <c r="CZ2" t="n">
         <v>1.188429906316881</v>
       </c>
-      <c r="CZ2" t="n">
+      <c r="DA2" t="n">
         <v>6</v>
       </c>
-      <c r="DA2" t="n">
+      <c r="DB2" t="n">
         <v>13504</v>
       </c>
-      <c r="DB2" t="n">
+      <c r="DC2" t="n">
         <v>16235</v>
       </c>
-      <c r="DC2" t="n">
+      <c r="DD2" t="n">
         <v>29739</v>
       </c>
     </row>
@@ -37211,61 +37211,61 @@
       <c r="CJ6" t="n">
         <v>1104738</v>
       </c>
-      <c r="CK6" t="n">
-        <v>0</v>
-      </c>
       <c r="CL6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CM6" t="n">
         <v>114078</v>
       </c>
-      <c r="CM6" t="n">
-        <v>0</v>
-      </c>
       <c r="CN6" t="n">
         <v>0</v>
       </c>
       <c r="CO6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CP6" t="n">
         <v>1244189</v>
       </c>
-      <c r="CP6" t="n">
-        <v>0</v>
-      </c>
       <c r="CQ6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CR6" t="n">
         <v>1358267</v>
       </c>
-      <c r="CR6" t="n">
+      <c r="CS6" t="n">
         <v>2463005</v>
       </c>
-      <c r="CS6" t="n">
-        <v>0</v>
-      </c>
       <c r="CT6" t="n">
+        <v>0</v>
+      </c>
+      <c r="CU6" t="n">
         <v>0.02729211470236479</v>
       </c>
-      <c r="CU6" t="n">
+      <c r="CV6" t="n">
         <v>1.647122207876676</v>
       </c>
-      <c r="CV6" t="n">
+      <c r="CW6" t="n">
         <v>1.163324045481222</v>
       </c>
-      <c r="CW6" t="n">
+      <c r="CX6" t="n">
         <v>0.4485325851957264</v>
       </c>
-      <c r="CX6" t="n">
+      <c r="CY6" t="n">
         <v>0.5514674148042736</v>
       </c>
-      <c r="CY6" t="n">
+      <c r="CZ6" t="n">
         <v>0.8133437681987414</v>
       </c>
-      <c r="CZ6" t="n">
+      <c r="DA6" t="n">
         <v>43</v>
       </c>
-      <c r="DA6" t="n">
+      <c r="DB6" t="n">
         <v>27257</v>
       </c>
-      <c r="DB6" t="n">
+      <c r="DC6" t="n">
         <v>3750</v>
       </c>
-      <c r="DC6" t="n">
+      <c r="DD6" t="n">
         <v>31007</v>
       </c>
     </row>
@@ -46783,7 +46783,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:O199"/>
+  <dimension ref="A1:L199"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -51295,7 +51295,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T199"/>
+  <dimension ref="A1:Q199"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="90" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -57664,7 +57664,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:T199"/>
+  <dimension ref="A1:Q199"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="85" zoomScaleNormal="100" zoomScaleSheetLayoutView="85" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -64037,7 +64037,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N199"/>
+  <dimension ref="A1:K199"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -68151,7 +68151,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L199"/>
+  <dimension ref="A1:J199"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -74260,7 +74260,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K199"/>
+  <dimension ref="A1:J199"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
